--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Cthrc1-Fzd3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Cthrc1-Fzd3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,13 +85,13 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Cthrc1</t>
+  </si>
+  <si>
+    <t>Fzd3</t>
+  </si>
+  <si>
     <t>Neutrophils</t>
-  </si>
-  <si>
-    <t>Cthrc1</t>
-  </si>
-  <si>
-    <t>Fzd3</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,10 +525,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
         <v>24</v>
-      </c>
-      <c r="C2" t="s">
-        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.4135925</v>
+        <v>0.8141179999999999</v>
       </c>
       <c r="H2">
-        <v>4.827185</v>
+        <v>1.628236</v>
       </c>
       <c r="I2">
-        <v>0.1006166576043813</v>
+        <v>0.03711595173929667</v>
       </c>
       <c r="J2">
-        <v>0.07006619804477368</v>
+        <v>0.02558673725508277</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.415887</v>
+        <v>0.2272265</v>
       </c>
       <c r="N2">
-        <v>0.831774</v>
+        <v>0.454453</v>
       </c>
       <c r="O2">
-        <v>0.1274765705819998</v>
+        <v>0.08704083604617911</v>
       </c>
       <c r="P2">
-        <v>0.1197424607254622</v>
+        <v>0.08229687998280369</v>
       </c>
       <c r="Q2">
-        <v>1.0037817440475</v>
+        <v>0.184989183727</v>
       </c>
       <c r="R2">
-        <v>4.01512697619</v>
+        <v>0.7399567349079998</v>
       </c>
       <c r="S2">
-        <v>0.01282626645482982</v>
+        <v>0.003230603470038018</v>
       </c>
       <c r="T2">
-        <v>0.008389898967558767</v>
+        <v>0.002105708645033078</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,10 +587,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
         <v>24</v>
-      </c>
-      <c r="C3" t="s">
-        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.4135925</v>
+        <v>0.8141179999999999</v>
       </c>
       <c r="H3">
-        <v>4.827185</v>
+        <v>1.628236</v>
       </c>
       <c r="I3">
-        <v>0.1006166576043813</v>
+        <v>0.03711595173929667</v>
       </c>
       <c r="J3">
-        <v>0.07006619804477368</v>
+        <v>0.02558673725508277</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>0.824174</v>
       </c>
       <c r="O3">
-        <v>0.08420786983230948</v>
+        <v>0.1052353694185077</v>
       </c>
       <c r="P3">
-        <v>0.1186483622064973</v>
+        <v>0.149249644656207</v>
       </c>
       <c r="Q3">
-        <v>0.6630733950316667</v>
+        <v>0.2236582961773333</v>
       </c>
       <c r="R3">
-        <v>3.97844037019</v>
+        <v>1.341949777064</v>
       </c>
       <c r="S3">
-        <v>0.008472714406511796</v>
+        <v>0.003905910892604389</v>
       </c>
       <c r="T3">
-        <v>0.008313239644048478</v>
+        <v>0.003818811443232836</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,10 +649,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
         <v>24</v>
-      </c>
-      <c r="C4" t="s">
-        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.4135925</v>
+        <v>0.8141179999999999</v>
       </c>
       <c r="H4">
-        <v>4.827185</v>
+        <v>1.628236</v>
       </c>
       <c r="I4">
-        <v>0.1006166576043813</v>
+        <v>0.03711595173929667</v>
       </c>
       <c r="J4">
-        <v>0.07006619804477368</v>
+        <v>0.02558673725508277</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.42513</v>
+        <v>2.082377</v>
       </c>
       <c r="N4">
-        <v>4.85026</v>
+        <v>4.164754</v>
       </c>
       <c r="O4">
-        <v>0.7433443594426494</v>
+        <v>0.7976703203338269</v>
       </c>
       <c r="P4">
-        <v>0.6982450371835141</v>
+        <v>0.7541951755096822</v>
       </c>
       <c r="Q4">
-        <v>5.853275579525</v>
+        <v>1.695300598486</v>
       </c>
       <c r="R4">
-        <v>23.4131023181</v>
+        <v>6.781202393944</v>
       </c>
       <c r="S4">
-        <v>0.07479282489618923</v>
+        <v>0.02960629311337964</v>
       </c>
       <c r="T4">
-        <v>0.04892337505908046</v>
+        <v>0.01929739379481727</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,14 +711,14 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
         <v>24</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>25</v>
       </c>
-      <c r="D5" t="s">
-        <v>23</v>
-      </c>
       <c r="E5">
         <v>2</v>
       </c>
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.4135925</v>
+        <v>0.8141179999999999</v>
       </c>
       <c r="H5">
-        <v>4.827185</v>
+        <v>1.628236</v>
       </c>
       <c r="I5">
-        <v>0.1006166576043813</v>
+        <v>0.03711595173929667</v>
       </c>
       <c r="J5">
-        <v>0.07006619804477368</v>
+        <v>0.02558673725508277</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.125357</v>
+        <v>0.02610733333333333</v>
       </c>
       <c r="N5">
-        <v>0.376071</v>
+        <v>0.078322</v>
       </c>
       <c r="O5">
-        <v>0.03842409226171471</v>
+        <v>0.0100006122537187</v>
       </c>
       <c r="P5">
-        <v>0.05413930580600655</v>
+        <v>0.01418332860386696</v>
       </c>
       <c r="Q5">
-        <v>0.3025607150225</v>
+        <v>0.02125444999866666</v>
       </c>
       <c r="R5">
-        <v>1.815364290135</v>
+        <v>0.127526699992</v>
       </c>
       <c r="S5">
-        <v>0.003866103734856107</v>
+        <v>0.0003711822417724424</v>
       </c>
       <c r="T5">
-        <v>0.003793335322610221</v>
+        <v>0.0003629051023896438</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,10 +773,10 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
         <v>24</v>
-      </c>
-      <c r="C6" t="s">
-        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>26</v>
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.4135925</v>
+        <v>0.8141179999999999</v>
       </c>
       <c r="H6">
-        <v>4.827185</v>
+        <v>1.628236</v>
       </c>
       <c r="I6">
-        <v>0.1006166576043813</v>
+        <v>0.03711595173929667</v>
       </c>
       <c r="J6">
-        <v>0.07006619804477368</v>
+        <v>0.02558673725508277</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -806,28 +806,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.02135966666666667</v>
+        <v>0.000138</v>
       </c>
       <c r="N6">
-        <v>0.064079</v>
+        <v>0.000414</v>
       </c>
       <c r="O6">
-        <v>0.006547107881326709</v>
+        <v>5.286194776741585E-05</v>
       </c>
       <c r="P6">
-        <v>0.009224834078519996</v>
+        <v>7.49712474400669E-05</v>
       </c>
       <c r="Q6">
-        <v>0.05155353126916667</v>
+        <v>0.000112348284</v>
       </c>
       <c r="R6">
-        <v>0.309321187615</v>
+        <v>0.0006740897039999999</v>
       </c>
       <c r="S6">
-        <v>0.000658748111994396</v>
+        <v>1.962021502180628E-06</v>
       </c>
       <c r="T6">
-        <v>0.0006463490514757594</v>
+        <v>1.918269609934788E-06</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,10 +835,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
         <v>24</v>
-      </c>
-      <c r="C7" t="s">
-        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
@@ -856,10 +856,10 @@
         <v>59.301109</v>
       </c>
       <c r="I7">
-        <v>0.8240384930780011</v>
+        <v>0.9011867647895317</v>
       </c>
       <c r="J7">
-        <v>0.8607507786564448</v>
+        <v>0.9318808175952528</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.415887</v>
+        <v>0.2272265</v>
       </c>
       <c r="N7">
-        <v>0.831774</v>
+        <v>0.454453</v>
       </c>
       <c r="O7">
-        <v>0.1274765705819998</v>
+        <v>0.08704083604617911</v>
       </c>
       <c r="P7">
-        <v>0.1197424607254622</v>
+        <v>0.08229687998280369</v>
       </c>
       <c r="Q7">
-        <v>8.220853439561001</v>
+        <v>4.491594481396167</v>
       </c>
       <c r="R7">
-        <v>49.325120637366</v>
+        <v>26.949566888377</v>
       </c>
       <c r="S7">
-        <v>0.1050456011251425</v>
+        <v>0.07844004944103221</v>
       </c>
       <c r="T7">
-        <v>0.1030684163076803</v>
+        <v>0.07669088380391349</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,10 +897,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
         <v>24</v>
-      </c>
-      <c r="C8" t="s">
-        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
@@ -918,10 +918,10 @@
         <v>59.301109</v>
       </c>
       <c r="I8">
-        <v>0.8240384930780011</v>
+        <v>0.9011867647895317</v>
       </c>
       <c r="J8">
-        <v>0.8607507786564448</v>
+        <v>0.9318808175952528</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>0.824174</v>
       </c>
       <c r="O8">
-        <v>0.08420786983230948</v>
+        <v>0.1052353694185077</v>
       </c>
       <c r="P8">
-        <v>0.1186483622064973</v>
+        <v>0.149249644656207</v>
       </c>
       <c r="Q8">
         <v>5.430492467662889</v>
@@ -948,10 +948,10 @@
         <v>48.87443220896599</v>
       </c>
       <c r="S8">
-        <v>0.06939052616192477</v>
+        <v>0.09483672210769618</v>
       </c>
       <c r="T8">
-        <v>0.1021266701555544</v>
+        <v>0.1390828808880271</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,10 +959,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
         <v>24</v>
-      </c>
-      <c r="C9" t="s">
-        <v>25</v>
       </c>
       <c r="D9" t="s">
         <v>22</v>
@@ -980,10 +980,10 @@
         <v>59.301109</v>
       </c>
       <c r="I9">
-        <v>0.8240384930780011</v>
+        <v>0.9011867647895317</v>
       </c>
       <c r="J9">
-        <v>0.8607507786564448</v>
+        <v>0.9318808175952528</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>2.42513</v>
+        <v>2.082377</v>
       </c>
       <c r="N9">
-        <v>4.85026</v>
+        <v>4.164754</v>
       </c>
       <c r="O9">
-        <v>0.7433443594426494</v>
+        <v>0.7976703203338269</v>
       </c>
       <c r="P9">
-        <v>0.6982450371835141</v>
+        <v>0.7541951755096822</v>
       </c>
       <c r="Q9">
-        <v>47.93763282305667</v>
+        <v>41.16242181869767</v>
       </c>
       <c r="R9">
-        <v>287.62579693834</v>
+        <v>246.974530912186</v>
       </c>
       <c r="S9">
-        <v>0.6125443657931529</v>
+        <v>0.7188499353502709</v>
       </c>
       <c r="T9">
-        <v>0.601014959448708</v>
+        <v>0.7028200167803578</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,13 +1021,13 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
         <v>24</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>25</v>
-      </c>
-      <c r="D10" t="s">
-        <v>23</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1042,10 +1042,10 @@
         <v>59.301109</v>
       </c>
       <c r="I10">
-        <v>0.8240384930780011</v>
+        <v>0.9011867647895317</v>
       </c>
       <c r="J10">
-        <v>0.8607507786564448</v>
+        <v>0.9318808175952528</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>0.125357</v>
+        <v>0.02610733333333333</v>
       </c>
       <c r="N10">
-        <v>0.376071</v>
+        <v>0.078322</v>
       </c>
       <c r="O10">
-        <v>0.03842409226171471</v>
+        <v>0.0100006122537187</v>
       </c>
       <c r="P10">
-        <v>0.05413930580600655</v>
+        <v>0.01418332860386696</v>
       </c>
       <c r="Q10">
-        <v>2.477936373637667</v>
+        <v>0.5160646065664445</v>
       </c>
       <c r="R10">
-        <v>22.301427362739</v>
+        <v>4.644581459098</v>
       </c>
       <c r="S10">
-        <v>0.03166293108523348</v>
+        <v>0.009012419402843308</v>
       </c>
       <c r="T10">
-        <v>0.04660044962843952</v>
+        <v>0.01321717185559368</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,10 +1083,10 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
         <v>24</v>
-      </c>
-      <c r="C11" t="s">
-        <v>25</v>
       </c>
       <c r="D11" t="s">
         <v>26</v>
@@ -1104,10 +1104,10 @@
         <v>59.301109</v>
       </c>
       <c r="I11">
-        <v>0.8240384930780011</v>
+        <v>0.9011867647895317</v>
       </c>
       <c r="J11">
-        <v>0.8607507786564448</v>
+        <v>0.9318808175952528</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -1116,28 +1116,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>0.02135966666666667</v>
+        <v>0.000138</v>
       </c>
       <c r="N11">
-        <v>0.064079</v>
+        <v>0.000414</v>
       </c>
       <c r="O11">
-        <v>0.006547107881326709</v>
+        <v>5.286194776741585E-05</v>
       </c>
       <c r="P11">
-        <v>0.009224834078519996</v>
+        <v>7.49712474400669E-05</v>
       </c>
       <c r="Q11">
-        <v>0.4222173070678888</v>
+        <v>0.002727851014</v>
       </c>
       <c r="R11">
-        <v>3.799955763611</v>
+        <v>0.024550659126</v>
       </c>
       <c r="S11">
-        <v>0.005395068912547566</v>
+        <v>4.76384876889907E-05</v>
       </c>
       <c r="T11">
-        <v>0.007940283116062593</v>
+        <v>6.986426736058554E-05</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,10 +1145,10 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
         <v>24</v>
-      </c>
-      <c r="C12" t="s">
-        <v>25</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.655778</v>
+        <v>1.353296</v>
       </c>
       <c r="H12">
-        <v>1.311556</v>
+        <v>2.706592</v>
       </c>
       <c r="I12">
-        <v>0.02733775087985481</v>
+        <v>0.06169728347117155</v>
       </c>
       <c r="J12">
-        <v>0.01903712877024833</v>
+        <v>0.04253244514966441</v>
       </c>
       <c r="K12">
         <v>2</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.415887</v>
+        <v>0.2272265</v>
       </c>
       <c r="N12">
-        <v>0.831774</v>
+        <v>0.454453</v>
       </c>
       <c r="O12">
-        <v>0.1274765705819998</v>
+        <v>0.08704083604617911</v>
       </c>
       <c r="P12">
-        <v>0.1197424607254622</v>
+        <v>0.08229687998280369</v>
       </c>
       <c r="Q12">
-        <v>0.272729545086</v>
+        <v>0.307504713544</v>
       </c>
       <c r="R12">
-        <v>1.090918180344</v>
+        <v>1.230018854176</v>
       </c>
       <c r="S12">
-        <v>0.003484922729588938</v>
+        <v>0.00537018313510888</v>
       </c>
       <c r="T12">
-        <v>0.002279552644097027</v>
+        <v>0.003500287533857113</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,10 +1207,10 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
         <v>24</v>
-      </c>
-      <c r="C13" t="s">
-        <v>25</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.655778</v>
+        <v>1.353296</v>
       </c>
       <c r="H13">
-        <v>1.311556</v>
+        <v>2.706592</v>
       </c>
       <c r="I13">
-        <v>0.02733775087985481</v>
+        <v>0.06169728347117155</v>
       </c>
       <c r="J13">
-        <v>0.01903712877024833</v>
+        <v>0.04253244514966441</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>0.824174</v>
       </c>
       <c r="O13">
-        <v>0.08420786983230948</v>
+        <v>0.1052353694185077</v>
       </c>
       <c r="P13">
-        <v>0.1186483622064973</v>
+        <v>0.149249644656207</v>
       </c>
       <c r="Q13">
-        <v>0.1801583924573333</v>
+        <v>0.3717837925013334</v>
       </c>
       <c r="R13">
-        <v>1.080950354744</v>
+        <v>2.230702755008</v>
       </c>
       <c r="S13">
-        <v>0.002302053767598918</v>
+        <v>0.006492736418207127</v>
       </c>
       <c r="T13">
-        <v>0.002258724149704154</v>
+        <v>0.00634795232494703</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,10 +1269,10 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
         <v>24</v>
-      </c>
-      <c r="C14" t="s">
-        <v>25</v>
       </c>
       <c r="D14" t="s">
         <v>22</v>
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.655778</v>
+        <v>1.353296</v>
       </c>
       <c r="H14">
-        <v>1.311556</v>
+        <v>2.706592</v>
       </c>
       <c r="I14">
-        <v>0.02733775087985481</v>
+        <v>0.06169728347117155</v>
       </c>
       <c r="J14">
-        <v>0.01903712877024833</v>
+        <v>0.04253244514966441</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>2.42513</v>
+        <v>2.082377</v>
       </c>
       <c r="N14">
-        <v>4.85026</v>
+        <v>4.164754</v>
       </c>
       <c r="O14">
-        <v>0.7433443594426494</v>
+        <v>0.7976703203338269</v>
       </c>
       <c r="P14">
-        <v>0.6982450371835141</v>
+        <v>0.7541951755096822</v>
       </c>
       <c r="Q14">
-        <v>1.59034690114</v>
+        <v>2.818072464592</v>
       </c>
       <c r="R14">
-        <v>6.36138760456</v>
+        <v>11.272289858368</v>
       </c>
       <c r="S14">
-        <v>0.0203213629163884</v>
+        <v>0.04921409187017634</v>
       </c>
       <c r="T14">
-        <v>0.01329258068604939</v>
+        <v>0.03207776493450708</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,14 +1331,14 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
         <v>24</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
         <v>25</v>
       </c>
-      <c r="D15" t="s">
-        <v>23</v>
-      </c>
       <c r="E15">
         <v>2</v>
       </c>
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.655778</v>
+        <v>1.353296</v>
       </c>
       <c r="H15">
-        <v>1.311556</v>
+        <v>2.706592</v>
       </c>
       <c r="I15">
-        <v>0.02733775087985481</v>
+        <v>0.06169728347117155</v>
       </c>
       <c r="J15">
-        <v>0.01903712877024833</v>
+        <v>0.04253244514966441</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M15">
-        <v>0.125357</v>
+        <v>0.02610733333333333</v>
       </c>
       <c r="N15">
-        <v>0.376071</v>
+        <v>0.078322</v>
       </c>
       <c r="O15">
-        <v>0.03842409226171471</v>
+        <v>0.0100006122537187</v>
       </c>
       <c r="P15">
-        <v>0.05413930580600655</v>
+        <v>0.01418332860386696</v>
       </c>
       <c r="Q15">
-        <v>0.08220636274600002</v>
+        <v>0.03533094977066667</v>
       </c>
       <c r="R15">
-        <v>0.493238176476</v>
+        <v>0.211985698624</v>
       </c>
       <c r="S15">
-        <v>0.001050428262035314</v>
+        <v>0.0006170106091029547</v>
       </c>
       <c r="T15">
-        <v>0.0010306569361608</v>
+        <v>0.0006032516458836378</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,10 +1393,10 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
         <v>24</v>
-      </c>
-      <c r="C16" t="s">
-        <v>25</v>
       </c>
       <c r="D16" t="s">
         <v>26</v>
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.655778</v>
+        <v>1.353296</v>
       </c>
       <c r="H16">
-        <v>1.311556</v>
+        <v>2.706592</v>
       </c>
       <c r="I16">
-        <v>0.02733775087985481</v>
+        <v>0.06169728347117155</v>
       </c>
       <c r="J16">
-        <v>0.01903712877024833</v>
+        <v>0.04253244514966441</v>
       </c>
       <c r="K16">
         <v>1</v>
@@ -1426,338 +1426,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>0.02135966666666667</v>
+        <v>0.000138</v>
       </c>
       <c r="N16">
-        <v>0.064079</v>
+        <v>0.000414</v>
       </c>
       <c r="O16">
-        <v>0.006547107881326709</v>
+        <v>5.286194776741585E-05</v>
       </c>
       <c r="P16">
-        <v>0.009224834078519996</v>
+        <v>7.49712474400669E-05</v>
       </c>
       <c r="Q16">
-        <v>0.01400719948733333</v>
+        <v>0.000186754848</v>
       </c>
       <c r="R16">
-        <v>0.08404319692399999</v>
+        <v>0.001120529088</v>
       </c>
       <c r="S16">
-        <v>0.0001789832042432436</v>
+        <v>3.26143857624452E-06</v>
       </c>
       <c r="T16">
-        <v>0.0001756143542369603</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
-      <c r="A17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" t="s">
-        <v>20</v>
-      </c>
-      <c r="E17">
-        <v>3</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17">
-        <v>1.151594333333333</v>
-      </c>
-      <c r="H17">
-        <v>3.454783</v>
-      </c>
-      <c r="I17">
-        <v>0.04800709843776271</v>
-      </c>
-      <c r="J17">
-        <v>0.05014589452853316</v>
-      </c>
-      <c r="K17">
-        <v>2</v>
-      </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
-      <c r="M17">
-        <v>0.415887</v>
-      </c>
-      <c r="N17">
-        <v>0.831774</v>
-      </c>
-      <c r="O17">
-        <v>0.1274765705819998</v>
-      </c>
-      <c r="P17">
-        <v>0.1197424607254622</v>
-      </c>
-      <c r="Q17">
-        <v>0.478933112507</v>
-      </c>
-      <c r="R17">
-        <v>2.873598675042</v>
-      </c>
-      <c r="S17">
-        <v>0.006119780272438468</v>
-      </c>
-      <c r="T17">
-        <v>0.006004592806126051</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20">
-      <c r="A18" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18" t="s">
-        <v>24</v>
-      </c>
-      <c r="C18" t="s">
-        <v>25</v>
-      </c>
-      <c r="D18" t="s">
-        <v>21</v>
-      </c>
-      <c r="E18">
-        <v>3</v>
-      </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-      <c r="G18">
-        <v>1.151594333333333</v>
-      </c>
-      <c r="H18">
-        <v>3.454783</v>
-      </c>
-      <c r="I18">
-        <v>0.04800709843776271</v>
-      </c>
-      <c r="J18">
-        <v>0.05014589452853316</v>
-      </c>
-      <c r="K18">
-        <v>3</v>
-      </c>
-      <c r="L18">
-        <v>1</v>
-      </c>
-      <c r="M18">
-        <v>0.2747246666666667</v>
-      </c>
-      <c r="N18">
-        <v>0.824174</v>
-      </c>
-      <c r="O18">
-        <v>0.08420786983230948</v>
-      </c>
-      <c r="P18">
-        <v>0.1186483622064973</v>
-      </c>
-      <c r="Q18">
-        <v>0.3163713693602223</v>
-      </c>
-      <c r="R18">
-        <v>2.847342324242</v>
-      </c>
-      <c r="S18">
-        <v>0.004042575496273989</v>
-      </c>
-      <c r="T18">
-        <v>0.005949728257190211</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20">
-      <c r="A19" t="s">
-        <v>23</v>
-      </c>
-      <c r="B19" t="s">
-        <v>24</v>
-      </c>
-      <c r="C19" t="s">
-        <v>25</v>
-      </c>
-      <c r="D19" t="s">
-        <v>22</v>
-      </c>
-      <c r="E19">
-        <v>3</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>1.151594333333333</v>
-      </c>
-      <c r="H19">
-        <v>3.454783</v>
-      </c>
-      <c r="I19">
-        <v>0.04800709843776271</v>
-      </c>
-      <c r="J19">
-        <v>0.05014589452853316</v>
-      </c>
-      <c r="K19">
-        <v>2</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>2.42513</v>
-      </c>
-      <c r="N19">
-        <v>4.85026</v>
-      </c>
-      <c r="O19">
-        <v>0.7433443594426494</v>
-      </c>
-      <c r="P19">
-        <v>0.6982450371835141</v>
-      </c>
-      <c r="Q19">
-        <v>2.792765965596667</v>
-      </c>
-      <c r="R19">
-        <v>16.75659579358</v>
-      </c>
-      <c r="S19">
-        <v>0.03568580583691894</v>
-      </c>
-      <c r="T19">
-        <v>0.03501412198967621</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20">
-      <c r="A20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" t="s">
-        <v>24</v>
-      </c>
-      <c r="C20" t="s">
-        <v>25</v>
-      </c>
-      <c r="D20" t="s">
-        <v>23</v>
-      </c>
-      <c r="E20">
-        <v>3</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20">
-        <v>1.151594333333333</v>
-      </c>
-      <c r="H20">
-        <v>3.454783</v>
-      </c>
-      <c r="I20">
-        <v>0.04800709843776271</v>
-      </c>
-      <c r="J20">
-        <v>0.05014589452853316</v>
-      </c>
-      <c r="K20">
-        <v>2</v>
-      </c>
-      <c r="L20">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M20">
-        <v>0.125357</v>
-      </c>
-      <c r="N20">
-        <v>0.376071</v>
-      </c>
-      <c r="O20">
-        <v>0.03842409226171471</v>
-      </c>
-      <c r="P20">
-        <v>0.05413930580600655</v>
-      </c>
-      <c r="Q20">
-        <v>0.1443604108436667</v>
-      </c>
-      <c r="R20">
-        <v>1.299243697593</v>
-      </c>
-      <c r="S20">
-        <v>0.001844629179589814</v>
-      </c>
-      <c r="T20">
-        <v>0.002714863918796007</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20">
-      <c r="A21" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" t="s">
-        <v>24</v>
-      </c>
-      <c r="C21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" t="s">
-        <v>26</v>
-      </c>
-      <c r="E21">
-        <v>3</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>1.151594333333333</v>
-      </c>
-      <c r="H21">
-        <v>3.454783</v>
-      </c>
-      <c r="I21">
-        <v>0.04800709843776271</v>
-      </c>
-      <c r="J21">
-        <v>0.05014589452853316</v>
-      </c>
-      <c r="K21">
-        <v>1</v>
-      </c>
-      <c r="L21">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M21">
-        <v>0.02135966666666667</v>
-      </c>
-      <c r="N21">
-        <v>0.064079</v>
-      </c>
-      <c r="O21">
-        <v>0.006547107881326709</v>
-      </c>
-      <c r="P21">
-        <v>0.009224834078519996</v>
-      </c>
-      <c r="Q21">
-        <v>0.02459767109522222</v>
-      </c>
-      <c r="R21">
-        <v>0.221379039857</v>
-      </c>
-      <c r="S21">
-        <v>0.0003143076525415033</v>
-      </c>
-      <c r="T21">
-        <v>0.0004625875567446821</v>
+        <v>3.188710469546564E-06</v>
       </c>
     </row>
   </sheetData>
